--- a/shinyapp/data/treedata.xlsx
+++ b/shinyapp/data/treedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandinidas/Desktop/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE77A397-D685-3F40-A6FB-153B9F51293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0940F657-98C3-424D-836E-41B880609040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{AD04F452-B06B-344E-85BE-128884BE33EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AD04F452-B06B-344E-85BE-128884BE33EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="69">
   <si>
     <t>Pillar</t>
   </si>
@@ -46,57 +46,30 @@
     <t>Health and Social Services</t>
   </si>
   <si>
-    <t>Loudoun Free Clinic, HealthWorks, local churches, business partners, Medicare, Loudoun County Mental Health, Loudoun Psychological Services, Girl Scouts</t>
-  </si>
-  <si>
     <t>Sterling</t>
   </si>
   <si>
-    <t>Moms Against Poverty, Christian Fellowship Church; INOVA, Drama Kids, Loudoun Soccer, Sterling Soccer, Sterling Park Baptist Church, Christian Fellowship Church</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sugarland </t>
   </si>
   <si>
-    <t>Riverside Church, Alpha Omega Psi, Loudoun Hunger</t>
-  </si>
-  <si>
-    <t>Healthworks, Loudoun County Free Clinic, INOVA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rolling Ridge </t>
   </si>
   <si>
-    <t>Women Giving Back; Loudoun Literacy; Backpack Buddies, RackRoom ShoesGalilee Church, Sterling United Methodist Church, St. Matthews, Loudoun Hunger Relief</t>
-  </si>
-  <si>
     <t xml:space="preserve">Forest Grove </t>
   </si>
   <si>
-    <t>Backpack Coalition, Donations from Walmart and Safeway</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mental Health </t>
   </si>
   <si>
-    <t>Loudoun County Mental Health, HealthWorks, Tree of Life, Salvation Army</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sterling </t>
   </si>
   <si>
-    <t>Youth for Tomorrow (TDT); Mental Health Substance Abuse and Development Services in Loudoun</t>
-  </si>
-  <si>
     <t>Sugarland</t>
   </si>
   <si>
     <t>Sully</t>
   </si>
   <si>
-    <t>INOVA Kellar Center, Healthworks, Loudoun County Mental Health</t>
-  </si>
-  <si>
     <t>Loudoun Mental Health</t>
   </si>
   <si>
@@ -106,18 +79,6 @@
     <t xml:space="preserve">Family Engagement </t>
   </si>
   <si>
-    <t>Parent Vue, SCAN, Tech support</t>
-  </si>
-  <si>
-    <t>Various family coffee topics monthly; various PEP topics monthly</t>
-  </si>
-  <si>
-    <t>Parent Veu, Schoology</t>
-  </si>
-  <si>
-    <t>Monthly Parent Coffees - ParentVue; Schoology; Math; Reading; Mental Health; Social Emotional Learning; Supporting Your Child at Home</t>
-  </si>
-  <si>
     <t>Family Coffee sessions</t>
   </si>
   <si>
@@ -127,9 +88,6 @@
     <t>Girl Scouts</t>
   </si>
   <si>
-    <t xml:space="preserve">INOVA; Drama Kids; Loudoun Soccer; Sterling Soccer; Sterling Park Baptist Church; Christian Fellowship Church; Heathy Plate Club; Readers as Leaders; Virtual Reading Under the Stars; Virtual Science Night </t>
-  </si>
-  <si>
     <t>Propel</t>
   </si>
   <si>
@@ -139,9 +97,6 @@
     <t>INOVA</t>
   </si>
   <si>
-    <t>INOVA, Girls on the Run, LCPS, RRD Teachers and Staff, Propel</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -152,6 +107,141 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Backpack Coalition</t>
+  </si>
+  <si>
+    <t>Donations from Walmart and Safeway</t>
+  </si>
+  <si>
+    <t>Loudoun Free Clinic</t>
+  </si>
+  <si>
+    <t>HealthWorks</t>
+  </si>
+  <si>
+    <t>Local churches</t>
+  </si>
+  <si>
+    <t>Business partners</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Tree of Life</t>
+  </si>
+  <si>
+    <t>Salvation Army</t>
+  </si>
+  <si>
+    <t>Parent Vue</t>
+  </si>
+  <si>
+    <t>SCAN</t>
+  </si>
+  <si>
+    <t>Tech support</t>
+  </si>
+  <si>
+    <t>Women Giving Back</t>
+  </si>
+  <si>
+    <t>Backpack Buddies</t>
+  </si>
+  <si>
+    <t>RackRoom Shoes</t>
+  </si>
+  <si>
+    <t>Galilee Church</t>
+  </si>
+  <si>
+    <t>United Methodist Church</t>
+  </si>
+  <si>
+    <t>St. Matthews</t>
+  </si>
+  <si>
+    <t>Loudoun Hunger Relief</t>
+  </si>
+  <si>
+    <t>Loudoun Literacy</t>
+  </si>
+  <si>
+    <t>Girls On the Run</t>
+  </si>
+  <si>
+    <t>RRD Teachers and Staff</t>
+  </si>
+  <si>
+    <t>Christian Fellowship Church</t>
+  </si>
+  <si>
+    <t>Drama Kids</t>
+  </si>
+  <si>
+    <t>Loudoun Soccer</t>
+  </si>
+  <si>
+    <t>Sterling Soccer</t>
+  </si>
+  <si>
+    <t>Sterling Park Baptist Church</t>
+  </si>
+  <si>
+    <t>Moms Against Poverty</t>
+  </si>
+  <si>
+    <t>Mental Health Substance Abuse and Development Services in Loudoun</t>
+  </si>
+  <si>
+    <t>Healthy Plate Club</t>
+  </si>
+  <si>
+    <t>Readers as Leaders</t>
+  </si>
+  <si>
+    <t>Virtual Reading under the Stars</t>
+  </si>
+  <si>
+    <t>Virtual Science Night</t>
+  </si>
+  <si>
+    <t>Schoology</t>
+  </si>
+  <si>
+    <t>Riverside Church</t>
+  </si>
+  <si>
+    <t>Alpha Omega Psi</t>
+  </si>
+  <si>
+    <t>Loudoun Hunger</t>
+  </si>
+  <si>
+    <t>Healthworks</t>
+  </si>
+  <si>
+    <t>Loudoun County Free Clinic</t>
+  </si>
+  <si>
+    <t>INOVA Kellar Center</t>
+  </si>
+  <si>
+    <t>Loudoun County Mental Health</t>
+  </si>
+  <si>
+    <t>ParentVeu</t>
+  </si>
+  <si>
+    <t>Monthly Parent Coffees - ParentVue</t>
+  </si>
+  <si>
+    <t>Loudoun Psychological Services</t>
+  </si>
+  <si>
+    <t>Family Coffee Sessions</t>
   </si>
 </sst>
 </file>
@@ -535,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EB7706-4380-2F4D-8BE2-E02937E289D5}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -562,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -576,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -590,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -604,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,11 +724,11 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,11 +738,11 @@
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -663,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -674,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -688,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -702,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -716,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -730,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -744,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -758,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -772,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -786,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -800,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -814,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -828,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -842,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -856,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -870,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -884,21 +974,707 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="3"/>
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
-    <sortCondition ref="B2:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
+    <sortCondition ref="B2:B74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
